--- a/biology/Médecine/Graham_Medley/Graham_Medley.xlsx
+++ b/biology/Médecine/Graham_Medley/Graham_Medley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graham Francis Hassell Medley OBE (né en 1961) est professeur de modélisation des maladies infectieuses à la London School of Hygiene and Tropical Medicine (LSHTM) et directeur du Center for the Mathematical Modeling of Infectious Diseases[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graham Francis Hassell Medley OBE (né en 1961) est professeur de modélisation des maladies infectieuses à la London School of Hygiene and Tropical Medicine (LSHTM) et directeur du Center for the Mathematical Modeling of Infectious Diseases,.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Medley fait ses études au Churcher's College et à l'Université d'York.
-Les recherches de Medley sont centrées sur la dynamique de transmission des maladies infectieuses, et il publie à ce sujet pour une gamme d'agents pathogènes et d'hôtes différents. Il s'intéresse particulièrement à l'application de modèles mathématiques à l'élaboration de politiques, en particulier l'interaction de la transmission des maladies avec les processus sociétaux et politiques[1].
-Il est l'un des 23 participants du Groupe consultatif scientifique pour les urgences (Sage), qui conseille le gouvernement du Royaume-Uni sur la Pandémie de Covid-19, et est président du sous-comité de modélisation SPI-M[3]. Il siège également au groupe d'experts de l'Infected Blood Inquiry du Royaume-Uni, créé pour enquêter sur l'utilisation du sang (et des produits sanguins) infectés dans le traitement, en particulier depuis 1970 [4].
-Depuis 2014, il est membre du comité scientifique des éditeurs réviseurs[5].
+Les recherches de Medley sont centrées sur la dynamique de transmission des maladies infectieuses, et il publie à ce sujet pour une gamme d'agents pathogènes et d'hôtes différents. Il s'intéresse particulièrement à l'application de modèles mathématiques à l'élaboration de politiques, en particulier l'interaction de la transmission des maladies avec les processus sociétaux et politiques.
+Il est l'un des 23 participants du Groupe consultatif scientifique pour les urgences (Sage), qui conseille le gouvernement du Royaume-Uni sur la Pandémie de Covid-19, et est président du sous-comité de modélisation SPI-M. Il siège également au groupe d'experts de l'Infected Blood Inquiry du Royaume-Uni, créé pour enquêter sur l'utilisation du sang (et des produits sanguins) infectés dans le traitement, en particulier depuis 1970 .
+Depuis 2014, il est membre du comité scientifique des éditeurs réviseurs.
 Medley est nommé Officier de l'Ordre de l'Empire britannique (OBE) dans les honneurs d'anniversaire 2020 pour ses services à la réponse COVID-19.
 </t>
         </is>
